--- a/testdata/Opencart_LoginData.xlsx
+++ b/testdata/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopraveen\eclipse-workspace\openCart\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ACC772-4F07-4EDD-8DF8-AC3D782DCEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5F70F-A59D-4402-93EA-AC0068B31993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Lakshmi</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
     <t>laksh@yahoo.com</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>test@123</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,13 +505,13 @@
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
@@ -519,32 +519,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
